--- a/dutyRateNew.xlsx
+++ b/dutyRateNew.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CCTV" sheetId="1" r:id="rId1"/>
-    <sheet name="新货描" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="540">
   <si>
     <t>Item Name</t>
   </si>
@@ -1596,6 +1596,45 @@
   </si>
   <si>
     <t>Bearing</t>
+  </si>
+  <si>
+    <t>85322400</t>
+  </si>
+  <si>
+    <t>85423900</t>
+  </si>
+  <si>
+    <t>85299090</t>
+  </si>
+  <si>
+    <t>85044090</t>
+  </si>
+  <si>
+    <t>40169990</t>
+  </si>
+  <si>
+    <t>48191010</t>
+  </si>
+  <si>
+    <t>48219010</t>
+  </si>
+  <si>
+    <t>39232910</t>
+  </si>
+  <si>
+    <t>73181500</t>
+  </si>
+  <si>
+    <t>85229000</t>
+  </si>
+  <si>
+    <t>48114100</t>
+  </si>
+  <si>
+    <t>85181000</t>
+  </si>
+  <si>
+    <t>85444220</t>
   </si>
 </sst>
 </file>
@@ -4445,2981 +4484,7435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>123</v>
       </c>
       <c r="B20" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>129</v>
       </c>
       <c r="B26" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>131</v>
       </c>
       <c r="B28" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>133</v>
       </c>
       <c r="B30" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>137</v>
       </c>
       <c r="B34" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>138</v>
       </c>
       <c r="B35" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>140</v>
       </c>
       <c r="B37" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>142</v>
       </c>
       <c r="B39" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>146</v>
       </c>
       <c r="B43" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>148</v>
       </c>
       <c r="B45" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>150</v>
       </c>
       <c r="B47" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>154</v>
       </c>
       <c r="B51" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>157</v>
       </c>
       <c r="B54" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>159</v>
       </c>
       <c r="B56" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>162</v>
       </c>
       <c r="B59" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>163</v>
       </c>
       <c r="B60" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>164</v>
       </c>
       <c r="B61" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>167</v>
       </c>
       <c r="B64" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>168</v>
       </c>
       <c r="B65" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>169</v>
       </c>
       <c r="B66" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>172</v>
       </c>
       <c r="B69" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>177</v>
       </c>
       <c r="B74" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>178</v>
       </c>
       <c r="B75" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>181</v>
       </c>
       <c r="B78" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>182</v>
       </c>
       <c r="B79" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>183</v>
       </c>
       <c r="B80" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>184</v>
       </c>
       <c r="B81" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>185</v>
       </c>
       <c r="B82" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>186</v>
       </c>
       <c r="B83" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>187</v>
       </c>
       <c r="B84" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>188</v>
       </c>
       <c r="B85" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>189</v>
       </c>
       <c r="B86" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>190</v>
       </c>
       <c r="B87" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>191</v>
       </c>
       <c r="B88" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>192</v>
       </c>
       <c r="B89" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>193</v>
       </c>
       <c r="B90" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>194</v>
       </c>
       <c r="B91" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>195</v>
       </c>
       <c r="B92" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>196</v>
       </c>
       <c r="B93" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>197</v>
       </c>
       <c r="B94" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>199</v>
       </c>
       <c r="B96" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>200</v>
       </c>
       <c r="B97" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>201</v>
       </c>
       <c r="B98" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>202</v>
       </c>
       <c r="B99" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>203</v>
       </c>
       <c r="B100" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>204</v>
       </c>
       <c r="B101" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>205</v>
       </c>
       <c r="B102" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>206</v>
       </c>
       <c r="B103" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>207</v>
       </c>
       <c r="B104" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>208</v>
       </c>
       <c r="B105" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>209</v>
       </c>
       <c r="B106" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>210</v>
       </c>
       <c r="B107" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>211</v>
       </c>
       <c r="B108" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>212</v>
       </c>
       <c r="B109" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>213</v>
       </c>
       <c r="B110" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>214</v>
       </c>
       <c r="B111" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>215</v>
       </c>
       <c r="B112" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>216</v>
       </c>
       <c r="B113" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>217</v>
       </c>
       <c r="B114" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>218</v>
       </c>
       <c r="B115" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>219</v>
       </c>
       <c r="B116" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>220</v>
       </c>
       <c r="B117" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>221</v>
       </c>
       <c r="B118" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>222</v>
       </c>
       <c r="B119" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>18</v>
+      </c>
+      <c r="F119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>223</v>
       </c>
       <c r="B120" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>224</v>
       </c>
       <c r="B121" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>225</v>
       </c>
       <c r="B122" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>226</v>
       </c>
       <c r="B123" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>227</v>
       </c>
       <c r="B124" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>228</v>
       </c>
       <c r="B125" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>229</v>
       </c>
       <c r="B126" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>18</v>
+      </c>
+      <c r="F126" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>230</v>
       </c>
       <c r="B127" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>231</v>
       </c>
       <c r="B128" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>232</v>
       </c>
       <c r="B129" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>233</v>
       </c>
       <c r="B130" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>18</v>
+      </c>
+      <c r="F130" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>234</v>
       </c>
       <c r="B131" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>18</v>
+      </c>
+      <c r="F131" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>235</v>
       </c>
       <c r="B132" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>236</v>
       </c>
       <c r="B133" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>18</v>
+      </c>
+      <c r="F133" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>237</v>
       </c>
       <c r="B134" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>18</v>
+      </c>
+      <c r="F134" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>238</v>
       </c>
       <c r="B135" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>239</v>
       </c>
       <c r="B136" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>240</v>
       </c>
       <c r="B137" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="F137" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>241</v>
       </c>
       <c r="B138" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>242</v>
       </c>
       <c r="B139" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>243</v>
       </c>
       <c r="B140" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>244</v>
       </c>
       <c r="B141" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>245</v>
       </c>
       <c r="B142" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>246</v>
       </c>
       <c r="B143" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>247</v>
       </c>
       <c r="B144" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>248</v>
       </c>
       <c r="B145" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>249</v>
       </c>
       <c r="B146" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>250</v>
       </c>
       <c r="B147" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>251</v>
       </c>
       <c r="B148" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>18</v>
+      </c>
+      <c r="F148" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>252</v>
       </c>
       <c r="B149" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>18</v>
+      </c>
+      <c r="F149" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>253</v>
       </c>
       <c r="B150" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>254</v>
       </c>
       <c r="B151" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>18</v>
+      </c>
+      <c r="F151" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>255</v>
       </c>
       <c r="B152" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>256</v>
       </c>
       <c r="B153" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>257</v>
       </c>
       <c r="B154" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>258</v>
       </c>
       <c r="B155" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>10</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>259</v>
       </c>
       <c r="B156" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>260</v>
       </c>
       <c r="B157" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>261</v>
       </c>
       <c r="B158" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>262</v>
       </c>
       <c r="B159" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>264</v>
       </c>
       <c r="B161" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>18</v>
+      </c>
+      <c r="F161" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>18</v>
+      </c>
+      <c r="F162" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>266</v>
       </c>
       <c r="B163" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>18</v>
+      </c>
+      <c r="F163" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>267</v>
       </c>
       <c r="B164" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
+      <c r="F164" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>268</v>
       </c>
       <c r="B165" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>269</v>
       </c>
       <c r="B166" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>270</v>
       </c>
       <c r="B167" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>271</v>
       </c>
       <c r="B168" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>272</v>
       </c>
       <c r="B169" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>273</v>
       </c>
       <c r="B170" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>274</v>
       </c>
       <c r="B171" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>18</v>
+      </c>
+      <c r="F171" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>275</v>
       </c>
       <c r="B172" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>276</v>
       </c>
       <c r="B173" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>18</v>
+      </c>
+      <c r="F173" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>277</v>
       </c>
       <c r="B174" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>278</v>
       </c>
       <c r="B175" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>279</v>
       </c>
       <c r="B176" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>280</v>
       </c>
       <c r="B177" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>281</v>
       </c>
       <c r="B178" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="F178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>282</v>
       </c>
       <c r="B179" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>18</v>
+      </c>
+      <c r="F179" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>283</v>
       </c>
       <c r="B180" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="F180" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>284</v>
       </c>
       <c r="B181" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>18</v>
+      </c>
+      <c r="F181" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>285</v>
       </c>
       <c r="B182" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>18</v>
+      </c>
+      <c r="F182" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>286</v>
       </c>
       <c r="B183" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>10</v>
+      </c>
+      <c r="D183">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>287</v>
       </c>
       <c r="B184" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>288</v>
       </c>
       <c r="B185" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>289</v>
       </c>
       <c r="B186" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>290</v>
       </c>
       <c r="B187" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>291</v>
       </c>
       <c r="B188" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>292</v>
       </c>
       <c r="B189" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>293</v>
       </c>
       <c r="B190" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>18</v>
+      </c>
+      <c r="F190" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>294</v>
       </c>
       <c r="B191" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>295</v>
       </c>
       <c r="B192" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>296</v>
       </c>
       <c r="B193" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <v>18</v>
+      </c>
+      <c r="F193" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>297</v>
       </c>
       <c r="B194" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>298</v>
       </c>
       <c r="B195" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>299</v>
       </c>
       <c r="B196" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>18</v>
+      </c>
+      <c r="F196" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>300</v>
       </c>
       <c r="B197" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>18</v>
+      </c>
+      <c r="F197" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>301</v>
       </c>
       <c r="B198" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>302</v>
       </c>
       <c r="B199" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>18</v>
+      </c>
+      <c r="F199" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>303</v>
       </c>
       <c r="B200" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>18</v>
+      </c>
+      <c r="F200" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>304</v>
       </c>
       <c r="B201" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>305</v>
       </c>
       <c r="B202" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202">
+        <v>10</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>306</v>
       </c>
       <c r="B203" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>12</v>
+      </c>
+      <c r="F203" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>307</v>
       </c>
       <c r="B204" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>308</v>
       </c>
       <c r="B205" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205">
+        <v>10</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>309</v>
       </c>
       <c r="B206" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206">
+        <v>10</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+      <c r="F206" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>310</v>
       </c>
       <c r="B207" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207">
+        <v>10</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>18</v>
+      </c>
+      <c r="F207" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>311</v>
       </c>
       <c r="B208" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208">
+        <v>10</v>
+      </c>
+      <c r="D208">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>18</v>
+      </c>
+      <c r="F208" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>312</v>
       </c>
       <c r="B209" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>18</v>
+      </c>
+      <c r="F209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>313</v>
       </c>
       <c r="B210" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>314</v>
       </c>
       <c r="B211" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>18</v>
+      </c>
+      <c r="F212" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>18</v>
+      </c>
+      <c r="F213" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>18</v>
+      </c>
+      <c r="F214" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>18</v>
+      </c>
+      <c r="F215" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>18</v>
+      </c>
+      <c r="F216" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>320</v>
       </c>
       <c r="B217" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>18</v>
+      </c>
+      <c r="F217" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>321</v>
       </c>
       <c r="B218" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>18</v>
+      </c>
+      <c r="F218" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>322</v>
       </c>
       <c r="B219" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219">
+        <v>10</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>12</v>
+      </c>
+      <c r="F219" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>323</v>
       </c>
       <c r="B220" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220">
+        <v>10</v>
+      </c>
+      <c r="D220">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>12</v>
+      </c>
+      <c r="F220" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>324</v>
       </c>
       <c r="B221" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>12</v>
+      </c>
+      <c r="F221" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>325</v>
       </c>
       <c r="B222" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222">
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>18</v>
+      </c>
+      <c r="F222" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>326</v>
       </c>
       <c r="B223" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+      <c r="E223">
+        <v>18</v>
+      </c>
+      <c r="F223" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>327</v>
       </c>
       <c r="B224" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224">
+        <v>10</v>
+      </c>
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>18</v>
+      </c>
+      <c r="F224" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>328</v>
       </c>
       <c r="B225" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225">
+        <v>10</v>
+      </c>
+      <c r="D225">
+        <v>10</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+      <c r="F225" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>329</v>
       </c>
       <c r="B226" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>10</v>
+      </c>
+      <c r="E226">
+        <v>18</v>
+      </c>
+      <c r="F226" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>330</v>
       </c>
       <c r="B227" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>18</v>
+      </c>
+      <c r="F227" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>331</v>
       </c>
       <c r="B228" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>332</v>
       </c>
       <c r="B229" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
+      </c>
+      <c r="F229" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>333</v>
       </c>
       <c r="B230" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>18</v>
+      </c>
+      <c r="F230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>334</v>
       </c>
       <c r="B231" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>18</v>
+      </c>
+      <c r="F231" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>335</v>
       </c>
       <c r="B232" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>18</v>
+      </c>
+      <c r="F232" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>336</v>
       </c>
       <c r="B233" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>18</v>
+      </c>
+      <c r="F233" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>337</v>
       </c>
       <c r="B234" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>18</v>
+      </c>
+      <c r="F234" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>338</v>
       </c>
       <c r="B235" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>10</v>
+      </c>
+      <c r="E235">
+        <v>18</v>
+      </c>
+      <c r="F235" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>339</v>
       </c>
       <c r="B236" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>18</v>
+      </c>
+      <c r="F236" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>340</v>
       </c>
       <c r="B237" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237">
+        <v>10</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>341</v>
       </c>
       <c r="B238" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238">
+        <v>10</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>12</v>
+      </c>
+      <c r="F238" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>342</v>
       </c>
       <c r="B239" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239">
+        <v>10</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>12</v>
+      </c>
+      <c r="F239" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>343</v>
       </c>
       <c r="B240" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240">
+        <v>10</v>
+      </c>
+      <c r="D240">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>18</v>
+      </c>
+      <c r="F240" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>344</v>
       </c>
       <c r="B241" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>18</v>
+      </c>
+      <c r="F241" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>345</v>
       </c>
       <c r="B242" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>10</v>
+      </c>
+      <c r="E242">
+        <v>18</v>
+      </c>
+      <c r="F242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>346</v>
       </c>
       <c r="B243" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243">
+        <v>10</v>
+      </c>
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243">
+        <v>18</v>
+      </c>
+      <c r="F243" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>347</v>
       </c>
       <c r="B244" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244">
+        <v>10</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>18</v>
+      </c>
+      <c r="F244" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>348</v>
       </c>
       <c r="B245" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="E245">
+        <v>18</v>
+      </c>
+      <c r="F245" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>349</v>
       </c>
       <c r="B246" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>18</v>
+      </c>
+      <c r="F246" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>350</v>
       </c>
       <c r="B247" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>10</v>
+      </c>
+      <c r="E247">
+        <v>18</v>
+      </c>
+      <c r="F247" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>351</v>
       </c>
       <c r="B248" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>18</v>
+      </c>
+      <c r="F248" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>352</v>
       </c>
       <c r="B249" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>10</v>
+      </c>
+      <c r="E249">
+        <v>18</v>
+      </c>
+      <c r="F249" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>353</v>
       </c>
       <c r="B250" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>18</v>
+      </c>
+      <c r="F250" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>354</v>
       </c>
       <c r="B251" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251">
+        <v>18</v>
+      </c>
+      <c r="F251" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>355</v>
       </c>
       <c r="B252" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
+      </c>
+      <c r="F252" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>356</v>
       </c>
       <c r="B253" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>18</v>
+      </c>
+      <c r="F253" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>357</v>
       </c>
       <c r="B254" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>358</v>
       </c>
       <c r="B255" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="C255">
+        <v>10</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>12</v>
+      </c>
+      <c r="F255" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>359</v>
       </c>
       <c r="B256" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="C256">
+        <v>10</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>360</v>
       </c>
       <c r="B257" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257">
+        <v>10</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>361</v>
       </c>
       <c r="B258" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258">
+        <v>10</v>
+      </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+      <c r="F258" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>362</v>
       </c>
       <c r="B259" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259">
+        <v>10</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+      <c r="F259" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>363</v>
       </c>
       <c r="B260" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+      <c r="E260">
+        <v>18</v>
+      </c>
+      <c r="F260" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>364</v>
       </c>
       <c r="B261" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>18</v>
+      </c>
+      <c r="F261" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>365</v>
       </c>
       <c r="B262" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262">
+        <v>10</v>
+      </c>
+      <c r="E262">
+        <v>18</v>
+      </c>
+      <c r="F262" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>366</v>
       </c>
       <c r="B263" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>18</v>
+      </c>
+      <c r="F263" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>367</v>
       </c>
       <c r="B264" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>10</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
+      </c>
+      <c r="F264" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>368</v>
       </c>
       <c r="B265" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>10</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
+      </c>
+      <c r="F265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>369</v>
       </c>
       <c r="B266" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>10</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
+      </c>
+      <c r="F266" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>370</v>
       </c>
       <c r="B267" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
+      </c>
+      <c r="F267" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>371</v>
       </c>
       <c r="B268" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
+      </c>
+      <c r="F268" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>372</v>
       </c>
       <c r="B269" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
+      </c>
+      <c r="F269" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>373</v>
       </c>
       <c r="B270" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
+      </c>
+      <c r="F270" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>374</v>
       </c>
       <c r="B271" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>10</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
+      </c>
+      <c r="F271" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>375</v>
       </c>
       <c r="B272" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>10</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
+      </c>
+      <c r="F272" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>376</v>
       </c>
       <c r="B273" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="C273">
+        <v>10</v>
+      </c>
+      <c r="D273">
+        <v>10</v>
+      </c>
+      <c r="E273">
+        <v>12</v>
+      </c>
+      <c r="F273" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>377</v>
       </c>
       <c r="B274" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="C274">
+        <v>10</v>
+      </c>
+      <c r="D274">
+        <v>10</v>
+      </c>
+      <c r="E274">
+        <v>12</v>
+      </c>
+      <c r="F274" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>378</v>
       </c>
       <c r="B275" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>10</v>
+      </c>
+      <c r="E275">
+        <v>12</v>
+      </c>
+      <c r="F275" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>379</v>
       </c>
       <c r="B276" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276">
+        <v>10</v>
+      </c>
+      <c r="E276">
+        <v>18</v>
+      </c>
+      <c r="F276" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>380</v>
       </c>
       <c r="B277" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277">
+        <v>18</v>
+      </c>
+      <c r="F277" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>381</v>
       </c>
       <c r="B278" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278">
+        <v>10</v>
+      </c>
+      <c r="E278">
+        <v>18</v>
+      </c>
+      <c r="F278" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>382</v>
       </c>
       <c r="B279" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
+      </c>
+      <c r="F279" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>383</v>
       </c>
       <c r="B280" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
+      <c r="C280">
+        <v>10</v>
+      </c>
+      <c r="D280">
+        <v>10</v>
+      </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
+      <c r="F280" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>384</v>
       </c>
       <c r="B281" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>10</v>
+      </c>
+      <c r="E281">
+        <v>18</v>
+      </c>
+      <c r="F281" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>385</v>
       </c>
       <c r="B282" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+      <c r="E282">
+        <v>18</v>
+      </c>
+      <c r="F282" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>386</v>
       </c>
       <c r="B283" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>10</v>
+      </c>
+      <c r="E283">
+        <v>18</v>
+      </c>
+      <c r="F283" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>387</v>
       </c>
       <c r="B284" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+      <c r="E284">
+        <v>18</v>
+      </c>
+      <c r="F284" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>388</v>
       </c>
       <c r="B285" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>10</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>389</v>
       </c>
       <c r="B286" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>10</v>
+      </c>
+      <c r="E286">
+        <v>18</v>
+      </c>
+      <c r="F286" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>390</v>
       </c>
       <c r="B287" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>10</v>
+      </c>
+      <c r="E287">
+        <v>18</v>
+      </c>
+      <c r="F287" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>391</v>
       </c>
       <c r="B288" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>10</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+      <c r="F288" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>392</v>
       </c>
       <c r="B289" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <v>18</v>
+      </c>
+      <c r="F289" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>393</v>
       </c>
       <c r="B290" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>10</v>
+      </c>
+      <c r="E290">
+        <v>18</v>
+      </c>
+      <c r="F290" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>394</v>
       </c>
       <c r="B291" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291">
+        <v>12</v>
+      </c>
+      <c r="F291" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>395</v>
       </c>
       <c r="B292" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>10</v>
+      </c>
+      <c r="E292">
+        <v>12</v>
+      </c>
+      <c r="F292" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>396</v>
       </c>
       <c r="B293" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>397</v>
       </c>
       <c r="B294" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <v>10</v>
+      </c>
+      <c r="E294">
+        <v>18</v>
+      </c>
+      <c r="F294" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>398</v>
       </c>
       <c r="B295" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>10</v>
+      </c>
+      <c r="E295">
+        <v>18</v>
+      </c>
+      <c r="F295" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>399</v>
       </c>
       <c r="B296" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>10</v>
+      </c>
+      <c r="E296">
+        <v>18</v>
+      </c>
+      <c r="F296" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>400</v>
       </c>
       <c r="B297" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297">
+        <v>10</v>
+      </c>
+      <c r="E297">
+        <v>18</v>
+      </c>
+      <c r="F297" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>401</v>
       </c>
       <c r="B298" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298">
+        <v>10</v>
+      </c>
+      <c r="E298">
+        <v>18</v>
+      </c>
+      <c r="F298" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>402</v>
       </c>
       <c r="B299" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299">
+        <v>18</v>
+      </c>
+      <c r="F299" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>403</v>
       </c>
       <c r="B300" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>10</v>
+      </c>
+      <c r="E300">
+        <v>18</v>
+      </c>
+      <c r="F300" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>404</v>
       </c>
       <c r="B301" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>10</v>
+      </c>
+      <c r="E301">
+        <v>18</v>
+      </c>
+      <c r="F301" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>405</v>
       </c>
       <c r="B302" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>10</v>
+      </c>
+      <c r="E302">
+        <v>18</v>
+      </c>
+      <c r="F302" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>406</v>
       </c>
       <c r="B303" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>10</v>
+      </c>
+      <c r="E303">
+        <v>18</v>
+      </c>
+      <c r="F303" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>407</v>
       </c>
       <c r="B304" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>18</v>
+      </c>
+      <c r="F304" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>408</v>
       </c>
       <c r="B305" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>10</v>
+      </c>
+      <c r="E305">
+        <v>18</v>
+      </c>
+      <c r="F305" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>409</v>
       </c>
       <c r="B306" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="307" spans="1:2">
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>10</v>
+      </c>
+      <c r="E306">
+        <v>18</v>
+      </c>
+      <c r="F306" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>410</v>
       </c>
       <c r="B307" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="308" spans="1:2">
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>10</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>411</v>
       </c>
       <c r="B308" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>18</v>
+      </c>
+      <c r="F308" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>412</v>
       </c>
       <c r="B309" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
+      <c r="C309">
+        <v>10</v>
+      </c>
+      <c r="D309">
+        <v>10</v>
+      </c>
+      <c r="E309">
+        <v>12</v>
+      </c>
+      <c r="F309" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>413</v>
       </c>
       <c r="B310" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="C310">
+        <v>10</v>
+      </c>
+      <c r="D310">
+        <v>10</v>
+      </c>
+      <c r="E310">
+        <v>12</v>
+      </c>
+      <c r="F310" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>414</v>
       </c>
       <c r="B311" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="312" spans="1:2">
+      <c r="C311">
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <v>10</v>
+      </c>
+      <c r="E311">
+        <v>12</v>
+      </c>
+      <c r="F311" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>415</v>
       </c>
       <c r="B312" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="313" spans="1:2">
+      <c r="C312">
+        <v>10</v>
+      </c>
+      <c r="D312">
+        <v>10</v>
+      </c>
+      <c r="E312">
+        <v>18</v>
+      </c>
+      <c r="F312" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>416</v>
       </c>
       <c r="B313" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
+      <c r="C313">
+        <v>10</v>
+      </c>
+      <c r="D313">
+        <v>10</v>
+      </c>
+      <c r="E313">
+        <v>18</v>
+      </c>
+      <c r="F313" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>417</v>
       </c>
       <c r="B314" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
+      <c r="C314">
+        <v>10</v>
+      </c>
+      <c r="D314">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>18</v>
+      </c>
+      <c r="F314" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>418</v>
       </c>
       <c r="B315" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>10</v>
+      </c>
+      <c r="E315">
+        <v>18</v>
+      </c>
+      <c r="F315" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>419</v>
       </c>
       <c r="B316" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>18</v>
+      </c>
+      <c r="F316" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>420</v>
       </c>
       <c r="B317" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>10</v>
+      </c>
+      <c r="E317">
+        <v>18</v>
+      </c>
+      <c r="F317" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>421</v>
       </c>
       <c r="B318" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>10</v>
+      </c>
+      <c r="E318">
+        <v>18</v>
+      </c>
+      <c r="F318" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>422</v>
       </c>
       <c r="B319" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>10</v>
+      </c>
+      <c r="E319">
+        <v>18</v>
+      </c>
+      <c r="F319" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>423</v>
       </c>
       <c r="B320" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>18</v>
+      </c>
+      <c r="F320" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>424</v>
       </c>
       <c r="B321" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>10</v>
+      </c>
+      <c r="E321">
+        <v>18</v>
+      </c>
+      <c r="F321" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>425</v>
       </c>
       <c r="B322" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>10</v>
+      </c>
+      <c r="E322">
+        <v>18</v>
+      </c>
+      <c r="F322" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>426</v>
       </c>
       <c r="B323" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>10</v>
+      </c>
+      <c r="E323">
+        <v>18</v>
+      </c>
+      <c r="F323" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>427</v>
       </c>
       <c r="B324" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>10</v>
+      </c>
+      <c r="E324">
+        <v>18</v>
+      </c>
+      <c r="F324" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>428</v>
       </c>
       <c r="B325" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>10</v>
+      </c>
+      <c r="E325">
+        <v>18</v>
+      </c>
+      <c r="F325" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>429</v>
       </c>
       <c r="B326" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>10</v>
+      </c>
+      <c r="E326">
+        <v>18</v>
+      </c>
+      <c r="F326" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>430</v>
       </c>
       <c r="B327" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>10</v>
+      </c>
+      <c r="E327">
+        <v>18</v>
+      </c>
+      <c r="F327" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>431</v>
       </c>
       <c r="B328" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>10</v>
+      </c>
+      <c r="E328">
+        <v>18</v>
+      </c>
+      <c r="F328" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>432</v>
       </c>
       <c r="B329" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>10</v>
+      </c>
+      <c r="E329">
+        <v>18</v>
+      </c>
+      <c r="F329" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>433</v>
       </c>
       <c r="B330" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="C330">
+        <v>10</v>
+      </c>
+      <c r="D330">
+        <v>10</v>
+      </c>
+      <c r="E330">
+        <v>18</v>
+      </c>
+      <c r="F330" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>434</v>
       </c>
       <c r="B331" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="C331">
+        <v>10</v>
+      </c>
+      <c r="D331">
+        <v>10</v>
+      </c>
+      <c r="E331">
+        <v>18</v>
+      </c>
+      <c r="F331" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>435</v>
       </c>
       <c r="B332" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
+      <c r="C332">
+        <v>10</v>
+      </c>
+      <c r="D332">
+        <v>10</v>
+      </c>
+      <c r="E332">
+        <v>18</v>
+      </c>
+      <c r="F332" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>436</v>
       </c>
       <c r="B333" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C333">
+        <v>10</v>
+      </c>
+      <c r="D333">
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>18</v>
+      </c>
+      <c r="F333" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>437</v>
       </c>
       <c r="B334" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>18</v>
+      </c>
+      <c r="F334" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>438</v>
       </c>
       <c r="B335" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>18</v>
+      </c>
+      <c r="F335" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>439</v>
       </c>
       <c r="B336" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>18</v>
+      </c>
+      <c r="F336" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>440</v>
       </c>
       <c r="B337" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>10</v>
+      </c>
+      <c r="E337">
+        <v>18</v>
+      </c>
+      <c r="F337" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>441</v>
       </c>
       <c r="B338" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>10</v>
+      </c>
+      <c r="E338">
+        <v>18</v>
+      </c>
+      <c r="F338" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>442</v>
       </c>
       <c r="B339" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>10</v>
+      </c>
+      <c r="E339">
+        <v>18</v>
+      </c>
+      <c r="F339" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>443</v>
       </c>
       <c r="B340" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <v>18</v>
+      </c>
+      <c r="F340" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>444</v>
       </c>
       <c r="B341" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341">
+        <v>18</v>
+      </c>
+      <c r="F341" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>445</v>
       </c>
       <c r="B342" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>10</v>
+      </c>
+      <c r="E342">
+        <v>18</v>
+      </c>
+      <c r="F342" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>446</v>
       </c>
       <c r="B343" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>10</v>
+      </c>
+      <c r="E343">
+        <v>18</v>
+      </c>
+      <c r="F343" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>447</v>
       </c>
       <c r="B344" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>10</v>
+      </c>
+      <c r="E344">
+        <v>18</v>
+      </c>
+      <c r="F344" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>448</v>
       </c>
       <c r="B345" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>10</v>
+      </c>
+      <c r="E345">
+        <v>18</v>
+      </c>
+      <c r="F345" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>449</v>
       </c>
       <c r="B346" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>10</v>
+      </c>
+      <c r="E346">
+        <v>18</v>
+      </c>
+      <c r="F346" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>450</v>
       </c>
       <c r="B347" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <v>18</v>
+      </c>
+      <c r="F347" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>451</v>
       </c>
       <c r="B348" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>10</v>
+      </c>
+      <c r="E348">
+        <v>18</v>
+      </c>
+      <c r="F348" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>452</v>
       </c>
       <c r="B349" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="C349">
+        <v>10</v>
+      </c>
+      <c r="D349">
+        <v>10</v>
+      </c>
+      <c r="E349">
+        <v>18</v>
+      </c>
+      <c r="F349" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>453</v>
       </c>
       <c r="B350" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
+      <c r="C350">
+        <v>10</v>
+      </c>
+      <c r="D350">
+        <v>10</v>
+      </c>
+      <c r="E350">
+        <v>18</v>
+      </c>
+      <c r="F350" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>454</v>
       </c>
       <c r="B351" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
+      <c r="C351">
+        <v>10</v>
+      </c>
+      <c r="D351">
+        <v>10</v>
+      </c>
+      <c r="E351">
+        <v>18</v>
+      </c>
+      <c r="F351" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>455</v>
       </c>
       <c r="B352" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
+      <c r="C352">
+        <v>10</v>
+      </c>
+      <c r="D352">
+        <v>10</v>
+      </c>
+      <c r="E352">
+        <v>18</v>
+      </c>
+      <c r="F352" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>456</v>
       </c>
       <c r="B353" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>10</v>
+      </c>
+      <c r="E353">
+        <v>18</v>
+      </c>
+      <c r="F353" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>457</v>
       </c>
       <c r="B354" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>10</v>
+      </c>
+      <c r="E354">
+        <v>18</v>
+      </c>
+      <c r="F354" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>458</v>
       </c>
       <c r="B355" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>10</v>
+      </c>
+      <c r="E355">
+        <v>18</v>
+      </c>
+      <c r="F355" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>459</v>
       </c>
       <c r="B356" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>10</v>
+      </c>
+      <c r="E356">
+        <v>18</v>
+      </c>
+      <c r="F356" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>460</v>
       </c>
       <c r="B357" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>10</v>
+      </c>
+      <c r="E357">
+        <v>18</v>
+      </c>
+      <c r="F357" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>461</v>
       </c>
       <c r="B358" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>10</v>
+      </c>
+      <c r="E358">
+        <v>18</v>
+      </c>
+      <c r="F358" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>462</v>
       </c>
       <c r="B359" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>10</v>
+      </c>
+      <c r="E359">
+        <v>18</v>
+      </c>
+      <c r="F359" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>463</v>
       </c>
       <c r="B360" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>10</v>
+      </c>
+      <c r="E360">
+        <v>18</v>
+      </c>
+      <c r="F360" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>464</v>
       </c>
       <c r="B361" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>10</v>
+      </c>
+      <c r="E361">
+        <v>18</v>
+      </c>
+      <c r="F361" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>465</v>
       </c>
       <c r="B362" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>10</v>
+      </c>
+      <c r="E362">
+        <v>18</v>
+      </c>
+      <c r="F362" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>466</v>
       </c>
       <c r="B363" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>10</v>
+      </c>
+      <c r="E363">
+        <v>18</v>
+      </c>
+      <c r="F363" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>467</v>
       </c>
       <c r="B364" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>10</v>
+      </c>
+      <c r="E364">
+        <v>18</v>
+      </c>
+      <c r="F364" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>468</v>
       </c>
       <c r="B365" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>10</v>
+      </c>
+      <c r="E365">
+        <v>18</v>
+      </c>
+      <c r="F365" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>469</v>
       </c>
       <c r="B366" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="367" spans="1:2">
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>10</v>
+      </c>
+      <c r="E366">
+        <v>18</v>
+      </c>
+      <c r="F366" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>470</v>
       </c>
       <c r="B367" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="368" spans="1:2">
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>10</v>
+      </c>
+      <c r="E367">
+        <v>18</v>
+      </c>
+      <c r="F367" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>471</v>
       </c>
       <c r="B368" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
+      <c r="C368">
+        <v>10</v>
+      </c>
+      <c r="D368">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>18</v>
+      </c>
+      <c r="F368" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>472</v>
       </c>
       <c r="B369" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
+      <c r="C369">
+        <v>10</v>
+      </c>
+      <c r="D369">
+        <v>10</v>
+      </c>
+      <c r="E369">
+        <v>18</v>
+      </c>
+      <c r="F369" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>473</v>
       </c>
       <c r="B370" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="371" spans="1:2">
+      <c r="C370">
+        <v>10</v>
+      </c>
+      <c r="D370">
+        <v>10</v>
+      </c>
+      <c r="E370">
+        <v>18</v>
+      </c>
+      <c r="F370" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>474</v>
       </c>
       <c r="B371" t="s">
         <v>526</v>
+      </c>
+      <c r="C371">
+        <v>10</v>
+      </c>
+      <c r="D371">
+        <v>10</v>
+      </c>
+      <c r="E371">
+        <v>18</v>
+      </c>
+      <c r="F371" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
